--- a/Emissao/Dados_Emissao/Original/Talita_Ariani_Lopes_Fabiano.xlsx
+++ b/Emissao/Dados_Emissao/Original/Talita_Ariani_Lopes_Fabiano.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="152">
   <si>
     <t>Cia</t>
   </si>
@@ -86,1012 +86,379 @@
     <t>401287 - A.M.A. - BAURU COR.DE SEGS LTDA.</t>
   </si>
   <si>
+    <t>405290 - ABC - CORRETORA DE SEGUROS S/S L</t>
+  </si>
+  <si>
+    <t>401742 - ADESTRA BRU COR.DE SEGS.LTDA</t>
+  </si>
+  <si>
+    <t>529380 - ADRIANA R M GARCIA CORRETORA DE</t>
+  </si>
+  <si>
+    <t>529571 - AG CORRETORA DE SEGUROS E SERVIC</t>
+  </si>
+  <si>
+    <t>482584 - ALESSANDRA SILVA DAMACENO</t>
+  </si>
+  <si>
+    <t>937 - MARILIA MERCADO</t>
+  </si>
+  <si>
+    <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
+  </si>
+  <si>
     <t>531</t>
   </si>
   <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>96546</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>De: 13/11/2024 a 13/11/2025</t>
+  </si>
+  <si>
+    <t>BENEDITO CORREIA PINTO</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>R$ 1.100,81</t>
+  </si>
+  <si>
+    <t>R$ 1.182,04</t>
+  </si>
+  <si>
+    <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
+    <t>402153 - BARINNI ADM. E COR. SEGS LTDA.</t>
+  </si>
+  <si>
+    <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+  </si>
+  <si>
+    <t>521399 - BERTUZZO CORRE DE SEGS E PECAS L</t>
+  </si>
+  <si>
+    <t>537340 - C2L CORRETORA DE SEGUROS E NEG L</t>
+  </si>
+  <si>
+    <t>402209 - CAMARGO PENTEADO COR.SEGS S/C LT</t>
+  </si>
+  <si>
+    <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
+  </si>
+  <si>
+    <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
+  </si>
+  <si>
+    <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
+  </si>
+  <si>
+    <t>402349 - CARRER CORRETORA DE SEGUROS S/S</t>
+  </si>
+  <si>
+    <t>480878 - CENTRAL BAURU CORRETORA DE SEGS</t>
+  </si>
+  <si>
+    <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
+  </si>
+  <si>
+    <t>494852 - CINSEG CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>404838 - CONFIALLE CORR SEGS EIRELI EPP</t>
+  </si>
+  <si>
+    <t>515873 - COPAIBA CORR E AGENTES DE SEGURO</t>
+  </si>
+  <si>
+    <t>403403 - CORRETO CORRETO COR DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>405064 - CORRETORA DOMINGUES DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>400269 - CRISTIANO KRISTENSEN</t>
+  </si>
+  <si>
+    <t>96511</t>
+  </si>
+  <si>
+    <t>De: 19/10/2024 a 19/10/2025</t>
+  </si>
+  <si>
+    <t>GERALDO FERREIRA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>R$ 2.745,69</t>
+  </si>
+  <si>
+    <t>R$ 2.948,32</t>
+  </si>
+  <si>
+    <t>404916 - D.L. CORRETORA DE SEGUROS LTDA.</t>
+  </si>
+  <si>
+    <t>400907 - DANIEL DE ANDRADE GHIROTTI</t>
+  </si>
+  <si>
+    <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>405195 - FUNDAMENTAL COR.DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>538800 - Fiz Corretora de Seguros LTDA</t>
+  </si>
+  <si>
+    <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>404715 - GARSEG CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>402336 - IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
+  </si>
+  <si>
+    <t>530111 - JP FRASSON FONCATTI TURCATO COR</t>
+  </si>
+  <si>
+    <t>528651 - JSJ CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>441532 - JVR ADM E COR DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>404836 - LIDER COR.DE SEGUROS S/C LTDA.</t>
+  </si>
+  <si>
+    <t>404716 - MACS MARILIA ADM E COR SEG LTDA</t>
+  </si>
+  <si>
+    <t>404717 - MACS MARILIA ADM E COR SEG LTDA</t>
+  </si>
+  <si>
+    <t>96549</t>
+  </si>
+  <si>
+    <t>De: 03/11/2024 a 03/11/2025</t>
+  </si>
+  <si>
+    <t>JEAN CLOUD CAMPOS GONCALVES</t>
+  </si>
+  <si>
+    <t>R$ 5.366,47</t>
+  </si>
+  <si>
+    <t>R$ 5.762,51</t>
+  </si>
+  <si>
+    <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>400299 - MARCOS ANTONIO POMPOLINI PAIVA</t>
+  </si>
+  <si>
+    <t>404128 - MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+  </si>
+  <si>
+    <t>527629 - MOLAN CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
     <t>927</t>
   </si>
   <si>
-    <t>22277</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>De: 13/10/2024 a 13/10/2025</t>
-  </si>
-  <si>
-    <t>FELIPE GOMES SALGUEIRO</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 418,02</t>
-  </si>
-  <si>
-    <t>R$ 448,86</t>
-  </si>
-  <si>
-    <t>405290 - ABC - CORRETORA DE SEGUROS S/S L</t>
-  </si>
-  <si>
-    <t>22278</t>
-  </si>
-  <si>
-    <t>De: 15/10/2024 a 15/10/2025</t>
-  </si>
-  <si>
-    <t>ANA SILVIA LOPES DAVI MEDOLA</t>
-  </si>
-  <si>
-    <t>R$ 226,98</t>
-  </si>
-  <si>
-    <t>R$ 243,72</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>95539</t>
-  </si>
-  <si>
-    <t>De: 07/10/2024 a 07/10/2025</t>
-  </si>
-  <si>
-    <t>VALERIA MARIA BOESSO DIAS</t>
+    <t>22673</t>
+  </si>
+  <si>
+    <t>De: 08/11/2024 a 08/11/2025</t>
+  </si>
+  <si>
+    <t>MARIA DELGI RAMOS</t>
+  </si>
+  <si>
+    <t>R$ 916,10</t>
+  </si>
+  <si>
+    <t>R$ 983,66</t>
+  </si>
+  <si>
+    <t>403928 - NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
+  </si>
+  <si>
+    <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>96536</t>
+  </si>
+  <si>
+    <t>De: 31/10/2024 a 31/10/2025</t>
+  </si>
+  <si>
+    <t>LUCAS APARECIDO CARDOSO</t>
+  </si>
+  <si>
+    <t>R$ 3.376,77</t>
+  </si>
+  <si>
+    <t>R$ 3.625,97</t>
+  </si>
+  <si>
+    <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>401432 - PAVANATO CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
+    <t>404437 - PERSONALITE ADM E COR DE SEGUROS</t>
+  </si>
+  <si>
+    <t>508005 - PHR. ADMINISTRATIVO E CORR DE SE</t>
+  </si>
+  <si>
+    <t>405180 - PRA SEMPRE ADM CORR SEG SC LT</t>
+  </si>
+  <si>
+    <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
+  </si>
+  <si>
+    <t>402601 - SABBAG COR.ADM.E CONSULT.DE SEGS</t>
+  </si>
+  <si>
+    <t>403180 - SENDER CORRETORA SEGS LTDA</t>
+  </si>
+  <si>
+    <t>96535</t>
+  </si>
+  <si>
+    <t>De: 18/10/2024 a 18/10/2025</t>
+  </si>
+  <si>
+    <t>ROSALINA NICOLETTI OLIVEIRA</t>
+  </si>
+  <si>
+    <t>R$ 2.119,19</t>
+  </si>
+  <si>
+    <t>R$ 2.275,58</t>
+  </si>
+  <si>
+    <t>436408 - SERTAN COR E ADM DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>96529</t>
+  </si>
+  <si>
+    <t>De: 16/10/2024 a 16/10/2025</t>
+  </si>
+  <si>
+    <t>VANDERLEY PERES MOREIRA</t>
+  </si>
+  <si>
+    <t>R$ 4.158,72</t>
+  </si>
+  <si>
+    <t>R$ 4.465,63</t>
+  </si>
+  <si>
+    <t>440556 - SILVA &amp; ANDRADE CORR SEGS LTDA</t>
+  </si>
+  <si>
+    <t>401201 - SILVIO CARLOS DAVILA GONCALVES</t>
+  </si>
+  <si>
+    <t>405298 - SOUZA &amp; CASTRO CORR.SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>495847 - TOP ALTA PROTECAO CORRETORA DE S</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>De: 24/10/2024 a 24/10/2025</t>
+  </si>
+  <si>
+    <t>CONDOMINIO EDIFICIO LEBLON</t>
+  </si>
+  <si>
+    <t>R$ 4.951,84</t>
+  </si>
+  <si>
+    <t>R$ 5.317,24</t>
+  </si>
+  <si>
+    <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>22662</t>
+  </si>
+  <si>
+    <t>De: 01/11/2024 a 01/11/2025</t>
+  </si>
+  <si>
+    <t>MARCIO RODRIGUES BRIANEZI</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>R$ 3.640,45</t>
-  </si>
-  <si>
-    <t>R$ 3.909,11</t>
-  </si>
-  <si>
-    <t>401742 - ADESTRA BRU COR.DE SEGS.LTDA</t>
-  </si>
-  <si>
-    <t>95543</t>
-  </si>
-  <si>
-    <t>GILBERTO FERNANDES</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>R$ 2.324,77</t>
-  </si>
-  <si>
-    <t>R$ 2.496,33</t>
-  </si>
-  <si>
-    <t>95547</t>
-  </si>
-  <si>
-    <t>De: 06/10/2024 a 06/10/2025</t>
-  </si>
-  <si>
-    <t>JOSE ALEX GARCIA</t>
-  </si>
-  <si>
-    <t>R$ 1.826,84</t>
-  </si>
-  <si>
-    <t>R$ 1.961,66</t>
-  </si>
-  <si>
-    <t>95597</t>
-  </si>
-  <si>
-    <t>SIMONE SOARES FORTUNATO</t>
-  </si>
-  <si>
-    <t>08/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 2.756,82</t>
-  </si>
-  <si>
-    <t>R$ 2.960,27</t>
-  </si>
-  <si>
-    <t>482584 - ALESSANDRA SILVA DAMACENO</t>
-  </si>
-  <si>
-    <t>937 - MARILIA MERCADO</t>
-  </si>
-  <si>
-    <t>403466 - ANGELA CARBONI CORRETORA DE SEGU</t>
-  </si>
-  <si>
-    <t>22227</t>
-  </si>
-  <si>
-    <t>De: 04/10/2024 a 04/10/2025</t>
-  </si>
-  <si>
-    <t>SICILIA PEREZ DE CAMARGO</t>
-  </si>
-  <si>
-    <t>03/10/2024</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>R$ 476,39</t>
-  </si>
-  <si>
-    <t>R$ 511,54</t>
-  </si>
-  <si>
-    <t>403556 - APAVERON CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>22243</t>
-  </si>
-  <si>
-    <t>De: 05/10/2024 a 05/10/2025</t>
-  </si>
-  <si>
-    <t>ARIELI MARRAN DA SILVA</t>
-  </si>
-  <si>
-    <t>04/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 348,51</t>
-  </si>
-  <si>
-    <t>R$ 374,22</t>
-  </si>
-  <si>
-    <t>22281</t>
-  </si>
-  <si>
-    <t>ANTONIO SERAFIM PEDRO ANGELO</t>
-  </si>
-  <si>
-    <t>R$ 321,87</t>
-  </si>
-  <si>
-    <t>R$ 345,59</t>
-  </si>
-  <si>
-    <t>22294</t>
-  </si>
-  <si>
-    <t>De: 09/10/2024 a 09/10/2025</t>
-  </si>
-  <si>
-    <t>DOUGLAS DE SANTIS GRECCO</t>
-  </si>
-  <si>
-    <t>R$ 306,82</t>
-  </si>
-  <si>
-    <t>R$ 329,43</t>
-  </si>
-  <si>
-    <t>95630</t>
-  </si>
-  <si>
-    <t>De: 01/10/2024 a 01/10/2025</t>
-  </si>
-  <si>
-    <t>TORRINHA MATERIAIS PARA CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>09/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 2.241,96</t>
-  </si>
-  <si>
-    <t>R$ 2.407,41</t>
-  </si>
-  <si>
-    <t>22315</t>
-  </si>
-  <si>
-    <t>De: 08/10/2024 a 08/10/2025</t>
-  </si>
-  <si>
-    <t>LEANDRO ALVES MARINHEIRO</t>
-  </si>
-  <si>
-    <t>R$ 723,47</t>
-  </si>
-  <si>
-    <t>R$ 848,04</t>
-  </si>
-  <si>
-    <t>402153 - BARINNI ADM. E COR. SEGS LTDA.</t>
-  </si>
-  <si>
-    <t>95346</t>
-  </si>
-  <si>
-    <t>De: 16/09/2024 a 16/09/2025</t>
-  </si>
-  <si>
-    <t>MARIANA LOPES RIBEIRO SOUZA</t>
-  </si>
-  <si>
-    <t>02/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 6.405,77</t>
-  </si>
-  <si>
-    <t>R$ 6.878,51</t>
-  </si>
-  <si>
-    <t>404723 - BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
-  </si>
-  <si>
-    <t>95636</t>
-  </si>
-  <si>
-    <t>De: 03/10/2024 a 03/10/2025</t>
-  </si>
-  <si>
-    <t>LEANDRO COLUCI</t>
-  </si>
-  <si>
-    <t>R$ 9.248,59</t>
-  </si>
-  <si>
-    <t>R$ 9.931,13</t>
-  </si>
-  <si>
-    <t>22253</t>
-  </si>
-  <si>
-    <t>De: 04/10/2024 a 04/10/2027</t>
-  </si>
-  <si>
-    <t>ARNALDO DOS ANJOS RAMOS</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>R$ 2.411,00</t>
-  </si>
-  <si>
-    <t>R$ 2.588,91</t>
-  </si>
-  <si>
-    <t>521399 - BERTUZZO CORRE DE SEGS E PECAS L</t>
-  </si>
-  <si>
-    <t>402209 - CAMARGO PENTEADO COR.SEGS S/C LT</t>
-  </si>
-  <si>
-    <t>404445 - CAPPI &amp; MACHADO CORRETORA DE SEG</t>
-  </si>
-  <si>
-    <t>421764 - CARBANE COR DE SEGUROS LTDA ME</t>
-  </si>
-  <si>
-    <t>5651</t>
-  </si>
-  <si>
-    <t>De: 02/10/2024 a 02/10/2025</t>
-  </si>
-  <si>
-    <t>BELMIRA BARBOSA DO NASCIMENTO</t>
-  </si>
-  <si>
-    <t>R$ 302,03</t>
-  </si>
-  <si>
-    <t>R$ 324,29</t>
-  </si>
-  <si>
-    <t>401547 - CARLOS JOSE CORAZZA COR.DE SEGS</t>
-  </si>
-  <si>
-    <t>402349 - CARRER CORRETORA DE SEGUROS S/S</t>
-  </si>
-  <si>
-    <t>480878 - CENTRAL BAURU CORRETORA DE SEGS</t>
-  </si>
-  <si>
-    <t>95348</t>
-  </si>
-  <si>
-    <t>De: 24/09/2024 a 24/09/2025</t>
-  </si>
-  <si>
-    <t>HIEDA MARIA ALVES RAGOZO</t>
-  </si>
-  <si>
-    <t>R$ 2.130,61</t>
-  </si>
-  <si>
-    <t>R$ 2.287,84</t>
-  </si>
-  <si>
-    <t>404287 - CHIQUINATTO PARENTI COR DE SEGS</t>
-  </si>
-  <si>
-    <t>494852 - CINSEG CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>404838 - CONFIALLE CORR SEGS EIRELI EPP</t>
-  </si>
-  <si>
-    <t>515873 - COPAIBA CORR E AGENTES DE SEGURO</t>
-  </si>
-  <si>
-    <t>403403 - CORRETO CORRETO COR DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>405064 - CORRETORA DOMINGUES DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>22259</t>
-  </si>
-  <si>
-    <t>MARCO CESAR LEITE</t>
-  </si>
-  <si>
-    <t>R$ 380,75</t>
-  </si>
-  <si>
-    <t>R$ 496,35</t>
-  </si>
-  <si>
-    <t>400269 - CRISTIANO KRISTENSEN</t>
-  </si>
-  <si>
-    <t>404916 - D.L. CORRETORA DE SEGUROS LTDA.</t>
-  </si>
-  <si>
-    <t>400907 - DANIEL DE ANDRADE GHIROTTI</t>
-  </si>
-  <si>
-    <t>403554 - EDINHO CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>95428</t>
-  </si>
-  <si>
-    <t>JOAO APARECIDO PATIM</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>R$ 2.296,50</t>
-  </si>
-  <si>
-    <t>R$ 2.465,98</t>
-  </si>
-  <si>
-    <t>405195 - FUNDAMENTAL COR.DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>De: 30/09/2024 a 30/09/2025</t>
-  </si>
-  <si>
-    <t>JJL NOVA ALIANCA POCOS ARTESIANOS LTDA</t>
-  </si>
-  <si>
-    <t>R$ 9.308,04</t>
-  </si>
-  <si>
-    <t>R$ 9.994,92</t>
-  </si>
-  <si>
-    <t>404714 - GARSEG CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>95419</t>
-  </si>
-  <si>
-    <t>ANTONIO PERES</t>
-  </si>
-  <si>
-    <t>R$ 2.541,45</t>
-  </si>
-  <si>
-    <t>R$ 2.729,00</t>
-  </si>
-  <si>
-    <t>95420</t>
-  </si>
-  <si>
-    <t>LUCIA ADRIANA ROSARIO GOMES</t>
-  </si>
-  <si>
-    <t>R$ 1.689,70</t>
-  </si>
-  <si>
-    <t>R$ 1.814,39</t>
-  </si>
-  <si>
-    <t>95484</t>
-  </si>
-  <si>
-    <t>De: 29/09/2024 a 29/09/2025</t>
-  </si>
-  <si>
-    <t>GARCA POCOS ARTESIANOS E CONST</t>
-  </si>
-  <si>
-    <t>R$ 3.114,68</t>
-  </si>
-  <si>
-    <t>R$ 3.344,54</t>
-  </si>
-  <si>
-    <t>95485</t>
-  </si>
-  <si>
-    <t>95535</t>
-  </si>
-  <si>
-    <t>GILBERTO MORETI PLAZA</t>
-  </si>
-  <si>
-    <t>R$ 2.524,34</t>
-  </si>
-  <si>
-    <t>R$ 2.710,63</t>
-  </si>
-  <si>
-    <t>95632</t>
-  </si>
-  <si>
-    <t>CONSTRUTORA MEGASOL LTDA</t>
-  </si>
-  <si>
-    <t>R$ 8.517,88</t>
-  </si>
-  <si>
-    <t>R$ 9.146,49</t>
-  </si>
-  <si>
-    <t>404715 - GARSEG CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>95359</t>
-  </si>
-  <si>
-    <t>CONSTRUTORA MARQUES DA COSTA LTDA</t>
-  </si>
-  <si>
-    <t>R$ 3.352,90</t>
-  </si>
-  <si>
-    <t>R$ 3.600,34</t>
-  </si>
-  <si>
-    <t>402336 - IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
-  </si>
-  <si>
-    <t>95499</t>
-  </si>
-  <si>
-    <t>De: 28/09/2024 a 28/09/2025</t>
-  </si>
-  <si>
-    <t>INDUSTRIA MARQUES DA COSTA LTDA</t>
-  </si>
-  <si>
-    <t>R$ 2.925,05</t>
-  </si>
-  <si>
-    <t>R$ 3.140,91</t>
-  </si>
-  <si>
-    <t>95519</t>
-  </si>
-  <si>
-    <t>MARCO AURELIO GUIJO</t>
-  </si>
-  <si>
-    <t>R$ 6.741,55</t>
-  </si>
-  <si>
-    <t>R$ 7.239,07</t>
-  </si>
-  <si>
-    <t>95582</t>
-  </si>
-  <si>
-    <t>R$ 1.732,65</t>
-  </si>
-  <si>
-    <t>R$ 1.860,51</t>
-  </si>
-  <si>
-    <t>528651 - JSJ CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>22197</t>
-  </si>
-  <si>
-    <t>FRANCISCO CARLOS CAZALE DE ARAUJO</t>
-  </si>
-  <si>
-    <t>R$ 427,04</t>
-  </si>
-  <si>
-    <t>R$ 458,52</t>
-  </si>
-  <si>
-    <t>441532 - JVR ADM E COR DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>22198</t>
-  </si>
-  <si>
-    <t>DORCEIA GREGORIO PEDRO</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>R$ 827,68</t>
-  </si>
-  <si>
-    <t>R$ 888,74</t>
-  </si>
-  <si>
-    <t>95378</t>
-  </si>
-  <si>
-    <t>JULIANA DE ALMEIDA NASCIMENTO</t>
-  </si>
-  <si>
-    <t>R$ 2.108,54</t>
-  </si>
-  <si>
-    <t>R$ 2.264,15</t>
-  </si>
-  <si>
-    <t>404836 - LIDER COR.DE SEGUROS S/C LTDA.</t>
-  </si>
-  <si>
-    <t>95523</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO SIMOES CUNHA</t>
-  </si>
-  <si>
-    <t>R$ 4.147,35</t>
-  </si>
-  <si>
-    <t>R$ 4.453,42</t>
-  </si>
-  <si>
-    <t>404716 - MACS MARILIA ADM E COR SEG LTDA</t>
-  </si>
-  <si>
-    <t>404717 - MACS MARILIA ADM E COR SEG LTDA</t>
-  </si>
-  <si>
-    <t>95421</t>
-  </si>
-  <si>
-    <t>29515</t>
-  </si>
-  <si>
-    <t>FERNANDA CIOCCIA SASTRE REDONDO</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>R$ 2.919,42</t>
-  </si>
-  <si>
-    <t>R$ 3.134,87</t>
-  </si>
-  <si>
-    <t>404835 - MAFA CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>95424</t>
-  </si>
-  <si>
-    <t>PATRICIA CRISTINA FREIRES</t>
-  </si>
-  <si>
-    <t>R$ 1.688,31</t>
-  </si>
-  <si>
-    <t>R$ 1.812,90</t>
-  </si>
-  <si>
-    <t>400299 - MARCOS ANTONIO POMPOLINI PAIVA</t>
-  </si>
-  <si>
-    <t>404128 - MINUCCI &amp; ZANUTO COR SEG LTDA</t>
-  </si>
-  <si>
-    <t>527629 - MOLAN CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>22178</t>
-  </si>
-  <si>
-    <t>SERGIO APARECIDO GODOI</t>
-  </si>
-  <si>
-    <t>01/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 846,21</t>
-  </si>
-  <si>
-    <t>R$ 908,65</t>
-  </si>
-  <si>
-    <t>403928 - NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
-  </si>
-  <si>
-    <t>22206</t>
-  </si>
-  <si>
-    <t>ANA PAULA NAZARETH CORDEIRO</t>
-  </si>
-  <si>
-    <t>R$ 1.830,46</t>
-  </si>
-  <si>
-    <t>R$ 1.965,52</t>
-  </si>
-  <si>
-    <t>22298</t>
-  </si>
-  <si>
-    <t>FERNANDO SALIBA</t>
-  </si>
-  <si>
-    <t>R$ 1.271,50</t>
-  </si>
-  <si>
-    <t>R$ 1.365,33</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>3088</t>
-  </si>
-  <si>
-    <t>OBARA CURSO DE IDIOMAS LTDA</t>
-  </si>
-  <si>
-    <t>R$ 1.406,69</t>
-  </si>
-  <si>
-    <t>R$ 1.510,49</t>
-  </si>
-  <si>
-    <t>495149 - ONLINE CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>22266</t>
-  </si>
-  <si>
-    <t>GILBERTO DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 555,33</t>
-  </si>
-  <si>
-    <t>R$ 596,29</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>De: 23/09/2024 a 23/09/2025</t>
-  </si>
-  <si>
-    <t>RESIDENCIAL VILA DOS PASSAROS</t>
-  </si>
-  <si>
-    <t>R$ 2.557,74</t>
-  </si>
-  <si>
-    <t>R$ 3.454,44</t>
-  </si>
-  <si>
-    <t>404478 - ONSITE CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>95647</t>
-  </si>
-  <si>
-    <t>De: 17/10/2024 a 17/10/2025</t>
-  </si>
-  <si>
-    <t>KASPEZACK PEREIRA DA PAZ</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>R$ 2.002,54</t>
-  </si>
-  <si>
-    <t>R$ 2.150,32</t>
-  </si>
-  <si>
-    <t>95500</t>
-  </si>
-  <si>
-    <t>ALESSANDRO FORTE</t>
-  </si>
-  <si>
-    <t>R$ 8.182,49</t>
-  </si>
-  <si>
-    <t>R$ 8.786,35</t>
-  </si>
-  <si>
-    <t>401432 - PAVANATO CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>404437 - PERSONALITE ADM E COR DE SEGUROS</t>
-  </si>
-  <si>
-    <t>508005 - PHR. ADMINISTRATIVO E CORR DE SE</t>
-  </si>
-  <si>
-    <t>95356</t>
-  </si>
-  <si>
-    <t>DINALVA SANTOS</t>
-  </si>
-  <si>
-    <t>R$ 1.350,01</t>
-  </si>
-  <si>
-    <t>R$ 1.449,64</t>
-  </si>
-  <si>
-    <t>405180 - PRA SEMPRE ADM CORR SEG SC LT</t>
-  </si>
-  <si>
-    <t>3073</t>
-  </si>
-  <si>
-    <t>De: 25/09/2024 a 25/09/2025</t>
-  </si>
-  <si>
-    <t>CARLOS ALEXANDRE DA GRACA DURO COUTO</t>
-  </si>
-  <si>
-    <t>R$ 392,22</t>
-  </si>
-  <si>
-    <t>R$ 421,16</t>
-  </si>
-  <si>
-    <t>405068 - RH CORRETORA DE SEGUROS S/C LTDA</t>
-  </si>
-  <si>
-    <t>22181</t>
-  </si>
-  <si>
-    <t>ANTONIO FELICIANO COUTINHO</t>
-  </si>
-  <si>
-    <t>R$ 131,16</t>
-  </si>
-  <si>
-    <t>R$ 140,83</t>
-  </si>
-  <si>
-    <t>22182</t>
-  </si>
-  <si>
-    <t>R$ 136,53</t>
-  </si>
-  <si>
-    <t>R$ 146,60</t>
-  </si>
-  <si>
-    <t>95381</t>
-  </si>
-  <si>
-    <t>29470</t>
-  </si>
-  <si>
-    <t>De: 20/09/2024 a 20/09/2025</t>
-  </si>
-  <si>
-    <t>MARLEI CRISTINA VIEIRA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>R$ 1.713,41</t>
-  </si>
-  <si>
-    <t>R$ 1.839,85</t>
-  </si>
-  <si>
-    <t>402601 - SABBAG COR.ADM.E CONSULT.DE SEGS</t>
-  </si>
-  <si>
-    <t>403180 - SENDER CORRETORA SEGS LTDA</t>
-  </si>
-  <si>
-    <t>95387</t>
-  </si>
-  <si>
-    <t>PAULO MARQUES MARILIA</t>
-  </si>
-  <si>
-    <t>R$ 2.689,54</t>
-  </si>
-  <si>
-    <t>R$ 2.888,02</t>
-  </si>
-  <si>
-    <t>436408 - SERTAN COR E ADM DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>95411</t>
-  </si>
-  <si>
-    <t>LUIS GUSTAVO GERMANO</t>
-  </si>
-  <si>
-    <t>R$ 1.462,15</t>
-  </si>
-  <si>
-    <t>R$ 1.570,05</t>
-  </si>
-  <si>
-    <t>22190</t>
-  </si>
-  <si>
-    <t>WILSON APARECIDO BORRERE</t>
-  </si>
-  <si>
-    <t>R$ 545,10</t>
-  </si>
-  <si>
-    <t>R$ 638,94</t>
-  </si>
-  <si>
-    <t>440556 - SILVA &amp; ANDRADE CORR SEGS LTDA</t>
-  </si>
-  <si>
-    <t>95416</t>
-  </si>
-  <si>
-    <t>MARIA HELENA RIZATTO CRIADO</t>
-  </si>
-  <si>
-    <t>R$ 1.935,61</t>
-  </si>
-  <si>
-    <t>R$ 2.078,45</t>
-  </si>
-  <si>
-    <t>401201 - SILVIO CARLOS DAVILA GONCALVES</t>
-  </si>
-  <si>
-    <t>95641</t>
-  </si>
-  <si>
-    <t>ELISABETE DE SOUZA DAMACENO 17173162807</t>
-  </si>
-  <si>
-    <t>R$ 2.757,58</t>
-  </si>
-  <si>
-    <t>R$ 2.961,08</t>
-  </si>
-  <si>
-    <t>405298 - SOUZA &amp; CASTRO CORR.SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>495847 - TOP ALTA PROTECAO CORRETORA DE S</t>
-  </si>
-  <si>
-    <t>3079</t>
-  </si>
-  <si>
-    <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>R$ 259,60</t>
-  </si>
-  <si>
-    <t>R$ 278,75</t>
-  </si>
-  <si>
-    <t>404709 - TRISEG CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>22209</t>
-  </si>
-  <si>
-    <t>WALLESKA DA COSTA PALHANO</t>
-  </si>
-  <si>
-    <t>R$ 256,22</t>
-  </si>
-  <si>
-    <t>R$ 275,10</t>
-  </si>
-  <si>
-    <t>22224</t>
-  </si>
-  <si>
-    <t>LUCIA ASATO</t>
-  </si>
-  <si>
-    <t>R$ 616,81</t>
-  </si>
-  <si>
-    <t>R$ 662,26</t>
-  </si>
-  <si>
-    <t>22244</t>
-  </si>
-  <si>
-    <t>VALQUIRIA NOTARIO MARTINHAO</t>
-  </si>
-  <si>
-    <t>R$ 594,15</t>
-  </si>
-  <si>
-    <t>R$ 637,95</t>
-  </si>
-  <si>
-    <t>22331</t>
-  </si>
-  <si>
-    <t>TEREZA CRISTINA MARZOLA</t>
-  </si>
-  <si>
-    <t>R$ 332,71</t>
-  </si>
-  <si>
-    <t>R$ 357,23</t>
-  </si>
-  <si>
-    <t>22213</t>
-  </si>
-  <si>
-    <t>ABRAAO DETINHO SOARES DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 376,73</t>
-  </si>
-  <si>
-    <t>R$ 404,51</t>
+    <t>R$ 481,61</t>
+  </si>
+  <si>
+    <t>R$ 517,13</t>
+  </si>
+  <si>
+    <t>96552</t>
+  </si>
+  <si>
+    <t>De: 04/11/2024 a 04/11/2025</t>
+  </si>
+  <si>
+    <t>WALDOMIRO JOSE PERES</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>R$ 2.166,15</t>
+  </si>
+  <si>
+    <t>R$ 2.326,01</t>
   </si>
   <si>
     <t>405473 - TRISTAO DE BAURU CORR SEG. LTDA</t>
+  </si>
+  <si>
+    <t>96523</t>
+  </si>
+  <si>
+    <t>DEBORAH BARBOZA GARROSSINO FERREIRA DA R</t>
+  </si>
+  <si>
+    <t>R$ 2.630,59</t>
+  </si>
+  <si>
+    <t>R$ 3.180,10</t>
   </si>
   <si>
     <t>530001 - V C CORRETORA DE SEGUROS LTDA</t>
@@ -1145,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1265,152 +632,152 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -1428,175 +795,175 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -1652,45 +1019,45 @@
         <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
@@ -1702,13 +1069,13 @@
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1764,45 +1131,45 @@
         <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
@@ -1820,45 +1187,45 @@
         <v>22</v>
       </c>
       <c r="R12" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
         <v>18</v>
@@ -1870,51 +1237,51 @@
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q13" t="s">
         <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
@@ -1932,45 +1299,45 @@
         <v>22</v>
       </c>
       <c r="R14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
         <v>18</v>
@@ -1988,45 +1355,45 @@
         <v>22</v>
       </c>
       <c r="R15" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
         <v>18</v>
@@ -2044,45 +1411,45 @@
         <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
         <v>18</v>
@@ -2100,45 +1467,45 @@
         <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
         <v>18</v>
@@ -2150,51 +1517,51 @@
         <v>20</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q18" t="s">
         <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
         <v>18</v>
@@ -2212,7 +1579,7 @@
         <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -2262,51 +1629,51 @@
         <v>20</v>
       </c>
       <c r="P20" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="Q20" t="s">
         <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
         <v>18</v>
@@ -2324,7 +1691,7 @@
         <v>22</v>
       </c>
       <c r="R21" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -2380,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="R22" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -2436,7 +1803,7 @@
         <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -2486,13 +1853,13 @@
         <v>20</v>
       </c>
       <c r="P24" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="s">
         <v>22</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -2542,51 +1909,51 @@
         <v>20</v>
       </c>
       <c r="P25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q25" t="s">
         <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
         <v>18</v>
@@ -2598,13 +1965,13 @@
         <v>20</v>
       </c>
       <c r="P26" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="s">
         <v>22</v>
       </c>
       <c r="R26" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -2660,7 +2027,7 @@
         <v>22</v>
       </c>
       <c r="R27" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="R28" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -2766,51 +2133,51 @@
         <v>20</v>
       </c>
       <c r="P29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q29" t="s">
         <v>22</v>
       </c>
       <c r="R29" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
         <v>18</v>
@@ -2828,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="R30" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -2878,51 +2245,51 @@
         <v>20</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="s">
         <v>22</v>
       </c>
       <c r="R31" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>
@@ -2940,7 +2307,7 @@
         <v>22</v>
       </c>
       <c r="R32" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
@@ -2996,7 +2363,7 @@
         <v>22</v>
       </c>
       <c r="R33" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -3052,7 +2419,7 @@
         <v>22</v>
       </c>
       <c r="R34" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
@@ -3102,13 +2469,13 @@
         <v>20</v>
       </c>
       <c r="P35" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q35" t="s">
         <v>22</v>
       </c>
       <c r="R35" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -3164,45 +2531,45 @@
         <v>22</v>
       </c>
       <c r="R36" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
         <v>18</v>
@@ -3220,7 +2587,7 @@
         <v>22</v>
       </c>
       <c r="R37" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -3270,13 +2637,13 @@
         <v>20</v>
       </c>
       <c r="P38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q38" t="s">
         <v>22</v>
       </c>
       <c r="R38" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
@@ -3332,7 +2699,7 @@
         <v>22</v>
       </c>
       <c r="R39" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -3382,51 +2749,51 @@
         <v>20</v>
       </c>
       <c r="P40" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q40" t="s">
         <v>22</v>
       </c>
       <c r="R40" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="L41" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
         <v>18</v>
@@ -3444,45 +2811,45 @@
         <v>22</v>
       </c>
       <c r="R41" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="L42" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="M42" t="s">
         <v>18</v>
@@ -3500,45 +2867,45 @@
         <v>22</v>
       </c>
       <c r="R42" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="L43" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
         <v>18</v>
@@ -3556,45 +2923,45 @@
         <v>22</v>
       </c>
       <c r="R43" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="M44" t="s">
         <v>18</v>
@@ -3606,51 +2973,51 @@
         <v>20</v>
       </c>
       <c r="P44" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q44" t="s">
         <v>22</v>
       </c>
       <c r="R44" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="L45" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
         <v>18</v>
@@ -3668,45 +3035,45 @@
         <v>22</v>
       </c>
       <c r="R45" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="L46" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
         <v>18</v>
@@ -3724,45 +3091,45 @@
         <v>22</v>
       </c>
       <c r="R46" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="L47" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
         <v>18</v>
@@ -3774,51 +3141,51 @@
         <v>20</v>
       </c>
       <c r="P47" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q47" t="s">
         <v>22</v>
       </c>
       <c r="R47" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K48" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="L48" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="M48" t="s">
         <v>18</v>
@@ -3836,7 +3203,7 @@
         <v>22</v>
       </c>
       <c r="R48" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -3886,51 +3253,51 @@
         <v>20</v>
       </c>
       <c r="P49" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q49" t="s">
         <v>22</v>
       </c>
       <c r="R49" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="L50" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
         <v>18</v>
@@ -3948,45 +3315,45 @@
         <v>22</v>
       </c>
       <c r="R50" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="L51" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
         <v>18</v>
@@ -3998,51 +3365,51 @@
         <v>20</v>
       </c>
       <c r="P51" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q51" t="s">
         <v>22</v>
       </c>
       <c r="R51" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="L52" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="M52" t="s">
         <v>18</v>
@@ -4060,45 +3427,45 @@
         <v>22</v>
       </c>
       <c r="R52" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="L53" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="M53" t="s">
         <v>18</v>
@@ -4116,7 +3483,7 @@
         <v>22</v>
       </c>
       <c r="R53" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
@@ -4166,13 +3533,13 @@
         <v>20</v>
       </c>
       <c r="P54" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q54" t="s">
         <v>22</v>
       </c>
       <c r="R54" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -4222,51 +3589,51 @@
         <v>20</v>
       </c>
       <c r="P55" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q55" t="s">
         <v>22</v>
       </c>
       <c r="R55" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K56" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="L56" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="M56" t="s">
         <v>18</v>
@@ -4284,45 +3651,45 @@
         <v>22</v>
       </c>
       <c r="R56" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="K57" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="L57" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="M57" t="s">
         <v>18</v>
@@ -4334,13 +3701,13 @@
         <v>20</v>
       </c>
       <c r="P57" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q57" t="s">
         <v>22</v>
       </c>
       <c r="R57" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
@@ -4390,107 +3757,107 @@
         <v>20</v>
       </c>
       <c r="P58" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="s">
         <v>22</v>
       </c>
       <c r="R58" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R59" t="s">
         <v>104</v>
-      </c>
-      <c r="J59" t="s">
-        <v>50</v>
-      </c>
-      <c r="K59" t="s">
-        <v>216</v>
-      </c>
-      <c r="L59" t="s">
-        <v>217</v>
-      </c>
-      <c r="M59" t="s">
-        <v>18</v>
-      </c>
-      <c r="N59" t="s">
-        <v>19</v>
-      </c>
-      <c r="O59" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R59" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K60" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
         <v>18</v>
@@ -4508,7 +3875,7 @@
         <v>22</v>
       </c>
       <c r="R60" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
@@ -4558,51 +3925,51 @@
         <v>20</v>
       </c>
       <c r="P61" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q61" t="s">
         <v>22</v>
       </c>
       <c r="R61" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="K62" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="L62" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="M62" t="s">
         <v>18</v>
@@ -4620,45 +3987,45 @@
         <v>22</v>
       </c>
       <c r="R62" t="s">
-        <v>231</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="L63" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="M63" t="s">
         <v>18</v>
@@ -4670,13 +4037,13 @@
         <v>20</v>
       </c>
       <c r="P63" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q63" t="s">
         <v>22</v>
       </c>
       <c r="R63" t="s">
-        <v>231</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
@@ -4732,7 +4099,7 @@
         <v>22</v>
       </c>
       <c r="R64" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
@@ -4788,45 +4155,45 @@
         <v>22</v>
       </c>
       <c r="R65" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="L66" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="M66" t="s">
         <v>18</v>
@@ -4838,13 +4205,13 @@
         <v>20</v>
       </c>
       <c r="P66" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q66" t="s">
         <v>22</v>
       </c>
       <c r="R66" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67">
@@ -4894,51 +4261,51 @@
         <v>20</v>
       </c>
       <c r="P67" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q67" t="s">
         <v>22</v>
       </c>
       <c r="R67" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="G68" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="H68" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I68" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K68" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="L68" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="M68" t="s">
         <v>18</v>
@@ -4956,45 +4323,45 @@
         <v>22</v>
       </c>
       <c r="R68" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K69" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="L69" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="M69" t="s">
         <v>18</v>
@@ -5012,45 +4379,45 @@
         <v>22</v>
       </c>
       <c r="R69" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="L70" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
         <v>18</v>
@@ -5068,45 +4435,45 @@
         <v>22</v>
       </c>
       <c r="R70" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K71" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="L71" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="M71" t="s">
         <v>18</v>
@@ -5124,45 +4491,45 @@
         <v>22</v>
       </c>
       <c r="R71" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="H72" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I72" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J72" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="K72" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="L72" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="M72" t="s">
         <v>18</v>
@@ -5180,45 +4547,45 @@
         <v>22</v>
       </c>
       <c r="R72" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="K73" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="M73" t="s">
         <v>18</v>
@@ -5230,51 +4597,51 @@
         <v>20</v>
       </c>
       <c r="P73" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q73" t="s">
         <v>22</v>
       </c>
       <c r="R73" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="G74" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="H74" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I74" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K74" t="s">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="L74" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="M74" t="s">
         <v>18</v>
@@ -5292,45 +4659,45 @@
         <v>22</v>
       </c>
       <c r="R74" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="L75" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="M75" t="s">
         <v>18</v>
@@ -5342,13 +4709,13 @@
         <v>20</v>
       </c>
       <c r="P75" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q75" t="s">
         <v>22</v>
       </c>
       <c r="R75" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
@@ -5398,51 +4765,51 @@
         <v>20</v>
       </c>
       <c r="P76" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q76" t="s">
         <v>22</v>
       </c>
       <c r="R76" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="G77" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="H77" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I77" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J77" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K77" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="L77" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="M77" t="s">
         <v>18</v>
@@ -5460,7 +4827,7 @@
         <v>22</v>
       </c>
       <c r="R77" t="s">
-        <v>280</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78">
@@ -5516,7 +4883,7 @@
         <v>22</v>
       </c>
       <c r="R78" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79">
@@ -5566,51 +4933,51 @@
         <v>20</v>
       </c>
       <c r="P79" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q79" t="s">
         <v>22</v>
       </c>
       <c r="R79" t="s">
-        <v>282</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K80" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="L80" t="s">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="M80" t="s">
         <v>18</v>
@@ -5628,1351 +4995,7 @@
         <v>22</v>
       </c>
       <c r="R80" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" t="s">
-        <v>253</v>
-      </c>
-      <c r="C81" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" t="s">
-        <v>289</v>
-      </c>
-      <c r="G81" t="s">
-        <v>290</v>
-      </c>
-      <c r="H81" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" t="s">
-        <v>104</v>
-      </c>
-      <c r="J81" t="s">
-        <v>27</v>
-      </c>
-      <c r="K81" t="s">
-        <v>291</v>
-      </c>
-      <c r="L81" t="s">
-        <v>292</v>
-      </c>
-      <c r="M81" t="s">
-        <v>18</v>
-      </c>
-      <c r="N81" t="s">
-        <v>19</v>
-      </c>
-      <c r="O81" t="s">
-        <v>20</v>
-      </c>
-      <c r="P81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>22</v>
-      </c>
-      <c r="R81" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" t="s">
-        <v>294</v>
-      </c>
-      <c r="D82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s">
-        <v>295</v>
-      </c>
-      <c r="H82" t="s">
-        <v>28</v>
-      </c>
-      <c r="I82" t="s">
-        <v>241</v>
-      </c>
-      <c r="J82" t="s">
-        <v>27</v>
-      </c>
-      <c r="K82" t="s">
-        <v>296</v>
-      </c>
-      <c r="L82" t="s">
-        <v>297</v>
-      </c>
-      <c r="M82" t="s">
-        <v>18</v>
-      </c>
-      <c r="N82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O82" t="s">
-        <v>20</v>
-      </c>
-      <c r="P82" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>22</v>
-      </c>
-      <c r="R82" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" t="s">
-        <v>298</v>
-      </c>
-      <c r="D83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" t="s">
-        <v>54</v>
-      </c>
-      <c r="G83" t="s">
-        <v>295</v>
-      </c>
-      <c r="H83" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" t="s">
-        <v>241</v>
-      </c>
-      <c r="J83" t="s">
-        <v>27</v>
-      </c>
-      <c r="K83" t="s">
-        <v>299</v>
-      </c>
-      <c r="L83" t="s">
-        <v>300</v>
-      </c>
-      <c r="M83" t="s">
-        <v>18</v>
-      </c>
-      <c r="N83" t="s">
-        <v>19</v>
-      </c>
-      <c r="O83" t="s">
-        <v>20</v>
-      </c>
-      <c r="P83" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>22</v>
-      </c>
-      <c r="R83" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" t="s">
-        <v>18</v>
-      </c>
-      <c r="N84" t="s">
-        <v>19</v>
-      </c>
-      <c r="O84" t="s">
-        <v>20</v>
-      </c>
-      <c r="P84" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" t="s">
-        <v>301</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" t="s">
-        <v>302</v>
-      </c>
-      <c r="F85" t="s">
-        <v>303</v>
-      </c>
-      <c r="G85" t="s">
-        <v>304</v>
-      </c>
-      <c r="H85" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" t="s">
-        <v>104</v>
-      </c>
-      <c r="J85" t="s">
-        <v>70</v>
-      </c>
-      <c r="K85" t="s">
-        <v>305</v>
-      </c>
-      <c r="L85" t="s">
-        <v>306</v>
-      </c>
-      <c r="M85" t="s">
-        <v>18</v>
-      </c>
-      <c r="N85" t="s">
-        <v>19</v>
-      </c>
-      <c r="O85" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>22</v>
-      </c>
-      <c r="R85" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" t="s">
-        <v>18</v>
-      </c>
-      <c r="J86" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86" t="s">
-        <v>18</v>
-      </c>
-      <c r="M86" t="s">
-        <v>18</v>
-      </c>
-      <c r="N86" t="s">
-        <v>19</v>
-      </c>
-      <c r="O86" t="s">
-        <v>20</v>
-      </c>
-      <c r="P86" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>22</v>
-      </c>
-      <c r="R86" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" t="s">
-        <v>309</v>
-      </c>
-      <c r="D87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" t="s">
-        <v>28</v>
-      </c>
-      <c r="F87" t="s">
-        <v>124</v>
-      </c>
-      <c r="G87" t="s">
-        <v>310</v>
-      </c>
-      <c r="H87" t="s">
-        <v>28</v>
-      </c>
-      <c r="I87" t="s">
-        <v>104</v>
-      </c>
-      <c r="J87" t="s">
-        <v>50</v>
-      </c>
-      <c r="K87" t="s">
-        <v>311</v>
-      </c>
-      <c r="L87" t="s">
-        <v>312</v>
-      </c>
-      <c r="M87" t="s">
-        <v>18</v>
-      </c>
-      <c r="N87" t="s">
-        <v>19</v>
-      </c>
-      <c r="O87" t="s">
-        <v>20</v>
-      </c>
-      <c r="P87" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>22</v>
-      </c>
-      <c r="R87" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" t="s">
-        <v>314</v>
-      </c>
-      <c r="D88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" t="s">
-        <v>28</v>
-      </c>
-      <c r="F88" t="s">
-        <v>158</v>
-      </c>
-      <c r="G88" t="s">
-        <v>315</v>
-      </c>
-      <c r="H88" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" t="s">
-        <v>69</v>
-      </c>
-      <c r="J88" t="s">
-        <v>27</v>
-      </c>
-      <c r="K88" t="s">
-        <v>316</v>
-      </c>
-      <c r="L88" t="s">
-        <v>317</v>
-      </c>
-      <c r="M88" t="s">
-        <v>18</v>
-      </c>
-      <c r="N88" t="s">
-        <v>19</v>
-      </c>
-      <c r="O88" t="s">
-        <v>20</v>
-      </c>
-      <c r="P88" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>22</v>
-      </c>
-      <c r="R88" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" t="s">
-        <v>18</v>
-      </c>
-      <c r="J89" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" t="s">
-        <v>18</v>
-      </c>
-      <c r="N89" t="s">
-        <v>19</v>
-      </c>
-      <c r="O89" t="s">
-        <v>20</v>
-      </c>
-      <c r="P89" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>22</v>
-      </c>
-      <c r="R89" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" t="s">
-        <v>318</v>
-      </c>
-      <c r="D90" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" t="s">
-        <v>28</v>
-      </c>
-      <c r="F90" t="s">
-        <v>90</v>
-      </c>
-      <c r="G90" t="s">
-        <v>319</v>
-      </c>
-      <c r="H90" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" t="s">
-        <v>241</v>
-      </c>
-      <c r="J90" t="s">
-        <v>70</v>
-      </c>
-      <c r="K90" t="s">
-        <v>320</v>
-      </c>
-      <c r="L90" t="s">
-        <v>321</v>
-      </c>
-      <c r="M90" t="s">
-        <v>18</v>
-      </c>
-      <c r="N90" t="s">
-        <v>19</v>
-      </c>
-      <c r="O90" t="s">
-        <v>20</v>
-      </c>
-      <c r="P90" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>22</v>
-      </c>
-      <c r="R90" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" t="s">
-        <v>323</v>
-      </c>
-      <c r="D91" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" t="s">
-        <v>124</v>
-      </c>
-      <c r="G91" t="s">
-        <v>324</v>
-      </c>
-      <c r="H91" t="s">
-        <v>28</v>
-      </c>
-      <c r="I91" t="s">
-        <v>69</v>
-      </c>
-      <c r="J91" t="s">
-        <v>44</v>
-      </c>
-      <c r="K91" t="s">
-        <v>325</v>
-      </c>
-      <c r="L91" t="s">
-        <v>326</v>
-      </c>
-      <c r="M91" t="s">
-        <v>18</v>
-      </c>
-      <c r="N91" t="s">
-        <v>19</v>
-      </c>
-      <c r="O91" t="s">
-        <v>20</v>
-      </c>
-      <c r="P91" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>22</v>
-      </c>
-      <c r="R91" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" t="s">
-        <v>328</v>
-      </c>
-      <c r="D92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" t="s">
-        <v>28</v>
-      </c>
-      <c r="F92" t="s">
-        <v>85</v>
-      </c>
-      <c r="G92" t="s">
-        <v>329</v>
-      </c>
-      <c r="H92" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" t="s">
-        <v>92</v>
-      </c>
-      <c r="J92" t="s">
-        <v>50</v>
-      </c>
-      <c r="K92" t="s">
-        <v>330</v>
-      </c>
-      <c r="L92" t="s">
-        <v>331</v>
-      </c>
-      <c r="M92" t="s">
-        <v>18</v>
-      </c>
-      <c r="N92" t="s">
-        <v>19</v>
-      </c>
-      <c r="O92" t="s">
-        <v>20</v>
-      </c>
-      <c r="P92" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>22</v>
-      </c>
-      <c r="R92" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" t="s">
-        <v>18</v>
-      </c>
-      <c r="J93" t="s">
-        <v>18</v>
-      </c>
-      <c r="K93" t="s">
-        <v>18</v>
-      </c>
-      <c r="L93" t="s">
-        <v>18</v>
-      </c>
-      <c r="M93" t="s">
-        <v>18</v>
-      </c>
-      <c r="N93" t="s">
-        <v>19</v>
-      </c>
-      <c r="O93" t="s">
-        <v>20</v>
-      </c>
-      <c r="P93" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>22</v>
-      </c>
-      <c r="R93" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" t="s">
-        <v>334</v>
-      </c>
-      <c r="D94" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s">
-        <v>335</v>
-      </c>
-      <c r="H94" t="s">
-        <v>28</v>
-      </c>
-      <c r="I94" t="s">
-        <v>69</v>
-      </c>
-      <c r="J94" t="s">
-        <v>27</v>
-      </c>
-      <c r="K94" t="s">
-        <v>336</v>
-      </c>
-      <c r="L94" t="s">
-        <v>337</v>
-      </c>
-      <c r="M94" t="s">
-        <v>18</v>
-      </c>
-      <c r="N94" t="s">
-        <v>19</v>
-      </c>
-      <c r="O94" t="s">
-        <v>20</v>
-      </c>
-      <c r="P94" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>22</v>
-      </c>
-      <c r="R94" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" t="s">
-        <v>339</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" t="s">
-        <v>124</v>
-      </c>
-      <c r="G95" t="s">
-        <v>340</v>
-      </c>
-      <c r="H95" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" t="s">
-        <v>31</v>
-      </c>
-      <c r="J95" t="s">
-        <v>116</v>
-      </c>
-      <c r="K95" t="s">
-        <v>341</v>
-      </c>
-      <c r="L95" t="s">
-        <v>342</v>
-      </c>
-      <c r="M95" t="s">
-        <v>18</v>
-      </c>
-      <c r="N95" t="s">
-        <v>19</v>
-      </c>
-      <c r="O95" t="s">
-        <v>20</v>
-      </c>
-      <c r="P95" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>22</v>
-      </c>
-      <c r="R95" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" t="s">
-        <v>343</v>
-      </c>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" t="s">
-        <v>28</v>
-      </c>
-      <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s">
-        <v>344</v>
-      </c>
-      <c r="H96" t="s">
-        <v>28</v>
-      </c>
-      <c r="I96" t="s">
-        <v>69</v>
-      </c>
-      <c r="J96" t="s">
-        <v>116</v>
-      </c>
-      <c r="K96" t="s">
-        <v>345</v>
-      </c>
-      <c r="L96" t="s">
-        <v>346</v>
-      </c>
-      <c r="M96" t="s">
-        <v>18</v>
-      </c>
-      <c r="N96" t="s">
-        <v>19</v>
-      </c>
-      <c r="O96" t="s">
-        <v>20</v>
-      </c>
-      <c r="P96" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>22</v>
-      </c>
-      <c r="R96" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" t="s">
-        <v>347</v>
-      </c>
-      <c r="D97" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" t="s">
-        <v>28</v>
-      </c>
-      <c r="F97" t="s">
-        <v>54</v>
-      </c>
-      <c r="G97" t="s">
-        <v>348</v>
-      </c>
-      <c r="H97" t="s">
-        <v>28</v>
-      </c>
-      <c r="I97" t="s">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s">
-        <v>70</v>
-      </c>
-      <c r="K97" t="s">
-        <v>349</v>
-      </c>
-      <c r="L97" t="s">
-        <v>350</v>
-      </c>
-      <c r="M97" t="s">
-        <v>18</v>
-      </c>
-      <c r="N97" t="s">
-        <v>19</v>
-      </c>
-      <c r="O97" t="s">
-        <v>20</v>
-      </c>
-      <c r="P97" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R97" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" t="s">
-        <v>351</v>
-      </c>
-      <c r="D98" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" t="s">
-        <v>28</v>
-      </c>
-      <c r="F98" t="s">
-        <v>85</v>
-      </c>
-      <c r="G98" t="s">
-        <v>352</v>
-      </c>
-      <c r="H98" t="s">
-        <v>28</v>
-      </c>
-      <c r="I98" t="s">
-        <v>92</v>
-      </c>
-      <c r="J98" t="s">
-        <v>44</v>
-      </c>
-      <c r="K98" t="s">
-        <v>353</v>
-      </c>
-      <c r="L98" t="s">
-        <v>354</v>
-      </c>
-      <c r="M98" t="s">
-        <v>18</v>
-      </c>
-      <c r="N98" t="s">
-        <v>19</v>
-      </c>
-      <c r="O98" t="s">
-        <v>20</v>
-      </c>
-      <c r="P98" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>22</v>
-      </c>
-      <c r="R98" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" t="s">
-        <v>18</v>
-      </c>
-      <c r="J99" t="s">
-        <v>18</v>
-      </c>
-      <c r="K99" t="s">
-        <v>18</v>
-      </c>
-      <c r="L99" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" t="s">
-        <v>18</v>
-      </c>
-      <c r="N99" t="s">
-        <v>19</v>
-      </c>
-      <c r="O99" t="s">
-        <v>20</v>
-      </c>
-      <c r="P99" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>22</v>
-      </c>
-      <c r="R99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" t="s">
-        <v>355</v>
-      </c>
-      <c r="D100" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F100" t="s">
-        <v>75</v>
-      </c>
-      <c r="G100" t="s">
-        <v>356</v>
-      </c>
-      <c r="H100" t="s">
-        <v>28</v>
-      </c>
-      <c r="I100" t="s">
-        <v>104</v>
-      </c>
-      <c r="J100" t="s">
-        <v>70</v>
-      </c>
-      <c r="K100" t="s">
-        <v>357</v>
-      </c>
-      <c r="L100" t="s">
-        <v>358</v>
-      </c>
-      <c r="M100" t="s">
-        <v>18</v>
-      </c>
-      <c r="N100" t="s">
-        <v>19</v>
-      </c>
-      <c r="O100" t="s">
-        <v>20</v>
-      </c>
-      <c r="P100" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>22</v>
-      </c>
-      <c r="R100" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" t="s">
-        <v>18</v>
-      </c>
-      <c r="I101" t="s">
-        <v>18</v>
-      </c>
-      <c r="J101" t="s">
-        <v>18</v>
-      </c>
-      <c r="K101" t="s">
-        <v>18</v>
-      </c>
-      <c r="L101" t="s">
-        <v>18</v>
-      </c>
-      <c r="M101" t="s">
-        <v>18</v>
-      </c>
-      <c r="N101" t="s">
-        <v>19</v>
-      </c>
-      <c r="O101" t="s">
-        <v>20</v>
-      </c>
-      <c r="P101" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>22</v>
-      </c>
-      <c r="R101" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102" t="s">
-        <v>18</v>
-      </c>
-      <c r="J102" t="s">
-        <v>18</v>
-      </c>
-      <c r="K102" t="s">
-        <v>18</v>
-      </c>
-      <c r="L102" t="s">
-        <v>18</v>
-      </c>
-      <c r="M102" t="s">
-        <v>18</v>
-      </c>
-      <c r="N102" t="s">
-        <v>19</v>
-      </c>
-      <c r="O102" t="s">
-        <v>20</v>
-      </c>
-      <c r="P102" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>22</v>
-      </c>
-      <c r="R102" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" t="s">
-        <v>18</v>
-      </c>
-      <c r="I103" t="s">
-        <v>18</v>
-      </c>
-      <c r="J103" t="s">
-        <v>18</v>
-      </c>
-      <c r="K103" t="s">
-        <v>18</v>
-      </c>
-      <c r="L103" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" t="s">
-        <v>18</v>
-      </c>
-      <c r="N103" t="s">
-        <v>19</v>
-      </c>
-      <c r="O103" t="s">
-        <v>20</v>
-      </c>
-      <c r="P103" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>22</v>
-      </c>
-      <c r="R103" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
-      <c r="H104" t="s">
-        <v>18</v>
-      </c>
-      <c r="I104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J104" t="s">
-        <v>18</v>
-      </c>
-      <c r="K104" t="s">
-        <v>18</v>
-      </c>
-      <c r="L104" t="s">
-        <v>18</v>
-      </c>
-      <c r="M104" t="s">
-        <v>18</v>
-      </c>
-      <c r="N104" t="s">
-        <v>19</v>
-      </c>
-      <c r="O104" t="s">
-        <v>20</v>
-      </c>
-      <c r="P104" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>22</v>
-      </c>
-      <c r="R104" t="s">
-        <v>362</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
